--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56611.43657415818</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56611.43657415818</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036925294.32527</v>
+        <v>43694512.72380087</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9710.897672331139</v>
+        <v>1115462.723378788</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17729.75550858916</v>
+        <v>1965542.225603289</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25748.12602143965</v>
+        <v>2815621.727827791</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33790.24968864062</v>
+        <v>3665709.877601024</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41831.98343945306</v>
+        <v>4515789.379825526</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49874.02552600561</v>
+        <v>5365868.882050027</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57915.96359568204</v>
+        <v>6215948.384274526</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65957.69734649446</v>
+        <v>7066027.886499023</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73999.53511418309</v>
+        <v>7916107.388723521</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82041.57720073561</v>
+        <v>8766186.89094802</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90083.42157869757</v>
+        <v>9616266.393172523</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98125.40734597394</v>
+        <v>10466345.89539703</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106167.3454156503</v>
+        <v>11316425.39762154</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114209.1897936122</v>
+        <v>12166504.89984605</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122251.1755608887</v>
+        <v>13016584.40207055</v>
       </c>
     </row>
   </sheetData>
